--- a/Rom Data Translation/S130T_ROM_Address_Translation.xlsx
+++ b/Rom Data Translation/S130T_ROM_Address_Translation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marshall\Documents\ZX_ECU_Files\rom data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marshall\Documents\GitHub\280ZX-Turbo-ECCS\Rom Data Translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033BA48-629C-4EC7-A625-23DBCDF11D92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EBC918-7430-4D27-A403-7C95377712FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="27795" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="27795" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="439">
   <si>
     <t>00</t>
   </si>
@@ -1224,9 +1224,6 @@
   </si>
   <si>
     <t xml:space="preserve">DWORD? </t>
-  </si>
-  <si>
-    <t>Same values as Z31</t>
   </si>
   <si>
     <t>line, unknown</t>
@@ -1929,9 +1926,9 @@
   <dimension ref="A1:AZ132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AI111" sqref="AI111"/>
+      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,10 +2161,10 @@
         <v>63</v>
       </c>
       <c r="AJ2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AK2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2280,7 +2277,7 @@
         <v>391</v>
       </c>
       <c r="AK3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -2308,7 +2305,7 @@
         <v>393</v>
       </c>
       <c r="AK4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -2381,7 +2378,7 @@
         <v>391</v>
       </c>
       <c r="AK5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -2391,8 +2388,8 @@
       <c r="B6" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>182</v>
+      <c r="C6" s="1">
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>183</v>
@@ -2416,7 +2413,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T6">
         <v>144</v>
@@ -2431,10 +2428,10 @@
         <v>512</v>
       </c>
       <c r="AJ6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AK6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -2494,7 +2491,7 @@
         <v>389</v>
       </c>
       <c r="AK7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -2607,7 +2604,7 @@
         <v>377</v>
       </c>
       <c r="AK8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -3043,10 +3040,10 @@
         <v>101</v>
       </c>
       <c r="AJ13" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -3156,10 +3153,10 @@
         <v>141</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -3272,7 +3269,7 @@
         <v>512</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
@@ -3380,7 +3377,7 @@
         <v>16</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -3550,7 +3547,7 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -3660,7 +3657,7 @@
         <v>16</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -3719,8 +3716,8 @@
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
-      <c r="AJ21" s="5" t="s">
-        <v>432</v>
+      <c r="AJ21" s="8" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -3833,7 +3830,7 @@
         <v>387</v>
       </c>
       <c r="AK22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -3876,72 +3873,24 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23"/>
-      <c r="T23" s="6">
-        <f>T22*0.03125</f>
-        <v>25</v>
-      </c>
-      <c r="U23" s="6">
-        <f t="shared" ref="U23:AI23" si="10">U22*0.03125</f>
-        <v>31.25</v>
-      </c>
-      <c r="V23" s="6">
-        <f t="shared" si="10"/>
-        <v>37.5</v>
-      </c>
-      <c r="W23" s="6">
-        <f t="shared" si="10"/>
-        <v>43.75</v>
-      </c>
-      <c r="X23" s="6">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="Y23" s="6">
-        <f t="shared" si="10"/>
-        <v>62.5</v>
-      </c>
-      <c r="Z23" s="6">
-        <f t="shared" si="10"/>
-        <v>75</v>
-      </c>
-      <c r="AA23" s="6">
-        <f t="shared" si="10"/>
-        <v>87.5</v>
-      </c>
-      <c r="AB23" s="6">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="AC23" s="6">
-        <f t="shared" si="10"/>
-        <v>112.5</v>
-      </c>
-      <c r="AD23" s="6">
-        <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-      <c r="AE23" s="6">
-        <f t="shared" si="10"/>
-        <v>137.5</v>
-      </c>
-      <c r="AF23" s="6">
-        <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-      <c r="AG23" s="6">
-        <f t="shared" si="10"/>
-        <v>162.5</v>
-      </c>
-      <c r="AH23" s="6">
-        <f t="shared" si="10"/>
-        <v>175</v>
-      </c>
-      <c r="AI23" s="6">
-        <f t="shared" si="10"/>
-        <v>187.5</v>
-      </c>
-      <c r="AJ23" s="8" t="s">
-        <v>394</v>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
@@ -4070,7 +4019,7 @@
         <v>16</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -4180,7 +4129,7 @@
         <v>18</v>
       </c>
       <c r="AJ26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -5810,7 +5759,7 @@
         <v>13.634782608695652</v>
       </c>
       <c r="AJ42" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AL42">
         <v>500</v>
@@ -5965,7 +5914,7 @@
         <v>13.634782608695652</v>
       </c>
       <c r="AJ43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL43">
         <v>500</v>
@@ -6120,7 +6069,7 @@
         <v>12.931958762886598</v>
       </c>
       <c r="AJ44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AL44">
         <v>500</v>
@@ -6275,7 +6224,7 @@
         <v>12.543999999999999</v>
       </c>
       <c r="AJ45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AL45">
         <v>500</v>
@@ -6430,7 +6379,7 @@
         <v>11.473170731707317</v>
       </c>
       <c r="AJ46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL46">
         <v>500</v>
@@ -6585,7 +6534,7 @@
         <v>11.614814814814814</v>
       </c>
       <c r="AJ47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL47">
         <v>500</v>
@@ -8279,7 +8228,7 @@
         <v>64</v>
       </c>
       <c r="AJ59" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.25">
@@ -8753,7 +8702,7 @@
         <v>50</v>
       </c>
       <c r="AJ65" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
@@ -8863,7 +8812,7 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
@@ -8973,7 +8922,7 @@
         <v>78</v>
       </c>
       <c r="AJ67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
@@ -9083,7 +9032,7 @@
         <v>70</v>
       </c>
       <c r="AJ68" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
@@ -9193,7 +9142,7 @@
         <v>68</v>
       </c>
       <c r="AJ69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
@@ -9303,10 +9252,10 @@
         <v>32</v>
       </c>
       <c r="AJ70" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AK70" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
@@ -9416,7 +9365,7 @@
         <v>112</v>
       </c>
       <c r="AJ71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
@@ -9546,7 +9495,7 @@
         <v>3</v>
       </c>
       <c r="AJ73" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
@@ -9983,7 +9932,7 @@
         <v>379</v>
       </c>
       <c r="AK78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.25">
@@ -10042,10 +9991,10 @@
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
       <c r="AJ79" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AK79" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
@@ -10139,10 +10088,10 @@
       <c r="AH80" s="6"/>
       <c r="AI80" s="6"/>
       <c r="AJ80" t="s">
+        <v>417</v>
+      </c>
+      <c r="AK80" t="s">
         <v>418</v>
-      </c>
-      <c r="AK80" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
@@ -10619,35 +10568,35 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="T88" s="6">
-        <f t="shared" ref="T88:AA88" si="11">T87*12.5</f>
+        <f t="shared" ref="T88:AA88" si="10">T87*12.5</f>
         <v>1150</v>
       </c>
       <c r="U88" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1350</v>
       </c>
       <c r="V88" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1537.5</v>
       </c>
       <c r="W88" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1725</v>
       </c>
       <c r="X88" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1925</v>
       </c>
       <c r="Y88" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2400</v>
       </c>
       <c r="Z88" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2800</v>
       </c>
       <c r="AA88" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3600</v>
       </c>
       <c r="AB88" t="s">
@@ -10764,7 +10713,7 @@
         <v>391</v>
       </c>
       <c r="AK89" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.25">
@@ -10789,10 +10738,10 @@
         <v>390</v>
       </c>
       <c r="AA90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AC90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF90" s="10" t="s">
         <v>390</v>
@@ -10928,7 +10877,7 @@
         <v>6500</v>
       </c>
       <c r="AJ92" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.25">
@@ -11324,7 +11273,7 @@
         <v>374</v>
       </c>
       <c r="AJ98" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.25">
@@ -11437,7 +11386,7 @@
         <v>391</v>
       </c>
       <c r="AK99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.25">
@@ -11462,7 +11411,7 @@
         <v>513</v>
       </c>
       <c r="AK100" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.25">
@@ -11727,63 +11676,63 @@
         <v>3.6300000000000003</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" ref="U104:AI104" si="12">U103*0.33</f>
+        <f t="shared" ref="U104:AI104" si="11">U103*0.33</f>
         <v>4.95</v>
       </c>
       <c r="V104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>12.870000000000001</v>
       </c>
       <c r="W104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>20.46</v>
       </c>
       <c r="X104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>30.03</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>37.620000000000005</v>
       </c>
       <c r="Z104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>45.21</v>
       </c>
       <c r="AA104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>52.800000000000004</v>
       </c>
       <c r="AB104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>60.06</v>
       </c>
       <c r="AC104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>67.650000000000006</v>
       </c>
       <c r="AD104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>69.3</v>
       </c>
       <c r="AE104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>72.930000000000007</v>
       </c>
       <c r="AF104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>76.56</v>
       </c>
       <c r="AG104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>76.56</v>
       </c>
       <c r="AH104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>76.56</v>
       </c>
       <c r="AI104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>76.56</v>
       </c>
       <c r="AJ104" t="s">
@@ -11883,31 +11832,31 @@
         <v>1200</v>
       </c>
       <c r="U106" s="6">
-        <f t="shared" ref="U106:AA106" si="13">U105*12.5</f>
+        <f t="shared" ref="U106:AA106" si="12">U105*12.5</f>
         <v>1400</v>
       </c>
       <c r="V106" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1600</v>
       </c>
       <c r="W106" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1800</v>
       </c>
       <c r="X106" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2000</v>
       </c>
       <c r="Y106" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2400</v>
       </c>
       <c r="Z106" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2800</v>
       </c>
       <c r="AA106" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3000</v>
       </c>
       <c r="AB106" t="s">
@@ -12021,7 +11970,7 @@
         <v>25</v>
       </c>
       <c r="AJ107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.25">
@@ -12131,10 +12080,10 @@
         <v>16</v>
       </c>
       <c r="AJ108" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="AK108" t="s">
         <v>437</v>
-      </c>
-      <c r="AK108" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.25">
@@ -12200,63 +12149,63 @@
         <v>63</v>
       </c>
       <c r="U109">
-        <f t="shared" ref="U109:AI109" si="14">HEX2DEC(D109)</f>
+        <f t="shared" ref="U109:AI109" si="13">HEX2DEC(D109)</f>
         <v>63</v>
       </c>
       <c r="V109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>63</v>
       </c>
       <c r="W109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="X109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>102</v>
       </c>
       <c r="Y109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>137</v>
       </c>
       <c r="Z109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="AA109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AB109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>166</v>
       </c>
       <c r="AC109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>172</v>
       </c>
       <c r="AD109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>168</v>
       </c>
       <c r="AE109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="AF109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>186</v>
       </c>
       <c r="AG109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>218</v>
       </c>
       <c r="AH109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>168</v>
       </c>
       <c r="AI109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="AJ109" t="s">

--- a/Rom Data Translation/S130T_ROM_Address_Translation.xlsx
+++ b/Rom Data Translation/S130T_ROM_Address_Translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marshall\Documents\GitHub\280ZX-Turbo-ECCS\Rom Data Translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EBC918-7430-4D27-A403-7C95377712FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A7834E-F2E0-45CD-BF71-0A5A2C654162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="27795" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="27795" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="441">
   <si>
     <t>00</t>
   </si>
@@ -1202,12 +1202,6 @@
     <t>x*100/256, max 20.4v, min 0.08v (from Z31)</t>
   </si>
   <si>
-    <t>32x1 Cranking enrichment, scales vs temp 7B30</t>
-  </si>
-  <si>
-    <t>Ignition RPM SCALE DWORD 12.5 * X</t>
-  </si>
-  <si>
     <t>Fuel RPM SCALE DWORD 12.5 * X</t>
   </si>
   <si>
@@ -1220,9 +1214,6 @@
     <t>data, unknown</t>
   </si>
   <si>
-    <t>line, unknown DWORD</t>
-  </si>
-  <si>
     <t xml:space="preserve">DWORD? </t>
   </si>
   <si>
@@ -1241,15 +1232,9 @@
     <t>Hex 00 = closed loop flag</t>
   </si>
   <si>
-    <t>part throttle trim?</t>
-  </si>
-  <si>
     <t>after start enrichment</t>
   </si>
   <si>
-    <t>seems to scale based on ambient temperatures, AFM intake air temperature sensor?</t>
-  </si>
-  <si>
     <t xml:space="preserve">two values 7F44, 7F4C affect fuel enrichment on all ranges. </t>
   </si>
   <si>
@@ -1259,21 +1244,12 @@
     <t>fuel cut RPM 7F50 DWORD 12.5 * X</t>
   </si>
   <si>
-    <t>Y axis moves with RPM up to 3000</t>
-  </si>
-  <si>
     <t>idle timing 7F80 degrees BTDC</t>
   </si>
   <si>
-    <t>activates off idle switch</t>
-  </si>
-  <si>
     <t>maybe X*.03125 ?</t>
   </si>
   <si>
-    <t>maybe X*.03125 ? Same values as Z31</t>
-  </si>
-  <si>
     <t>TP scale fuel</t>
   </si>
   <si>
@@ -1286,18 +1262,12 @@
     <t>DWORD?</t>
   </si>
   <si>
-    <t>unkown, unused?</t>
-  </si>
-  <si>
     <t>DWORD</t>
   </si>
   <si>
     <t>microcode</t>
   </si>
   <si>
-    <t>X axis seems to move part throttle/ tp scale?</t>
-  </si>
-  <si>
     <t xml:space="preserve">might be something to do with closed loop? </t>
   </si>
   <si>
@@ -1355,10 +1325,46 @@
     <t>Idle Switch Ignition Table</t>
   </si>
   <si>
-    <t>off throttle advancement added to idle timing, scales to RPM, added to base idle timing</t>
-  </si>
-  <si>
     <t>stays at value 129 near sea level, could be Barometric Altitude sensor enrichment scale.</t>
+  </si>
+  <si>
+    <t>AFM intake air temperature sensor</t>
+  </si>
+  <si>
+    <t>``````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x*0.3125, roughly folows KPA. Easier to read. </t>
+  </si>
+  <si>
+    <t>Activates with idle switch</t>
+  </si>
+  <si>
+    <t>idle switch ON advancement added to base idle timing, scales to RPM, added to base idle timing</t>
+  </si>
+  <si>
+    <t>TP scale for 8x8 table</t>
+  </si>
+  <si>
+    <t>Y axis scale is 7FC0</t>
+  </si>
+  <si>
+    <t>X axis scale is 7F30</t>
+  </si>
+  <si>
+    <t>RPM scale for 8x8 table</t>
+  </si>
+  <si>
+    <t>unkown.</t>
+  </si>
+  <si>
+    <t>*.3125</t>
+  </si>
+  <si>
+    <t>32x1 Cranking enrichment, scales to temp 7B30</t>
+  </si>
+  <si>
+    <t>accessed at part throttle conditions</t>
   </si>
 </sst>
 </file>
@@ -1925,10 +1931,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomLeft" activeCell="AJ79" sqref="AJ79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,10 +2167,10 @@
         <v>63</v>
       </c>
       <c r="AJ2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AK2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2274,10 +2280,10 @@
         <v>157</v>
       </c>
       <c r="AJ3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AK3" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -2302,10 +2308,10 @@
         <v>720</v>
       </c>
       <c r="AJ4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AK4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -2375,10 +2381,10 @@
         <v>63</v>
       </c>
       <c r="AJ5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AK5" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -2413,7 +2419,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="3" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="T6">
         <v>144</v>
@@ -2428,10 +2434,10 @@
         <v>512</v>
       </c>
       <c r="AJ6" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AK6" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -2488,10 +2494,10 @@
         <v>16</v>
       </c>
       <c r="AC7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AK7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -2604,7 +2610,7 @@
         <v>377</v>
       </c>
       <c r="AK8" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -3040,10 +3046,10 @@
         <v>101</v>
       </c>
       <c r="AJ13" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AK13" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -3153,10 +3159,10 @@
         <v>141</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AK14" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -3269,7 +3275,7 @@
         <v>512</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
@@ -3313,71 +3319,71 @@
       <c r="R17" s="1"/>
       <c r="S17"/>
       <c r="T17" s="6">
-        <f>T16*0.03125</f>
-        <v>2</v>
+        <f>T16*0.3125</f>
+        <v>20</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" ref="U17:AI17" si="3">U16*0.03125</f>
-        <v>3</v>
+        <f t="shared" ref="U17:AI17" si="3">U16*0.3125</f>
+        <v>30</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>105</v>
       </c>
       <c r="AD17" s="6">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="AE17" s="6">
         <f t="shared" si="3"/>
-        <v>11.5</v>
+        <v>115</v>
       </c>
       <c r="AF17" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="AG17" s="6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="AH17" s="6">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="AI17" s="6">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -3487,7 +3493,7 @@
         <v>6000</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
@@ -3547,7 +3553,7 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="5" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -3593,71 +3599,55 @@
         <v>223</v>
       </c>
       <c r="T20">
-        <f>HEX2DEC(C20)*0.03125</f>
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="U20">
-        <f t="shared" ref="U20:AA20" si="6">HEX2DEC(D20)*0.03125</f>
-        <v>2.5</v>
+        <v>80</v>
       </c>
       <c r="V20">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="W20">
-        <f t="shared" si="6"/>
-        <v>3.5</v>
+        <v>112</v>
       </c>
       <c r="X20">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="6"/>
-        <v>4.5</v>
+        <v>144</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>176</v>
       </c>
       <c r="AB20">
-        <f>HEX2DEC(C21)*0.03125</f>
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="AC20">
-        <f t="shared" ref="AC20:AI20" si="7">HEX2DEC(D21)*0.03125</f>
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <v>288</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <v>448</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -3700,24 +3690,72 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
+      <c r="T21" s="6">
+        <f>T20*0.3125</f>
+        <v>20</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" ref="U21:AI21" si="6">U20*0.3125</f>
+        <v>25</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="X21" s="6">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="Y21" s="6">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="AA21" s="6">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="AB21" s="6">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="AC21" s="6">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="AD21" s="6">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="AE21" s="6">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="AF21" s="6">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="AG21" s="6">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="AH21" s="6">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="AI21" s="6">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
       <c r="AJ21" s="8" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -3767,31 +3805,31 @@
         <v>800</v>
       </c>
       <c r="U22">
-        <f t="shared" ref="U22:AA22" si="8">HEX2DEC(D22)*12.5</f>
+        <f t="shared" ref="U22:AA22" si="7">HEX2DEC(D22)*12.5</f>
         <v>1000</v>
       </c>
       <c r="V22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
       <c r="W22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1400</v>
       </c>
       <c r="X22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1600</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2400</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2800</v>
       </c>
       <c r="AB22">
@@ -3799,38 +3837,38 @@
         <v>3200</v>
       </c>
       <c r="AC22">
-        <f t="shared" ref="AC22:AI22" si="9">HEX2DEC(D23)*12.5</f>
+        <f t="shared" ref="AC22:AI22" si="8">HEX2DEC(D23)*12.5</f>
         <v>3600</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4400</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4800</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5200</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5600</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6000</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="AK22" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -3890,7 +3928,7 @@
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="5" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
@@ -4019,7 +4057,7 @@
         <v>16</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -4129,7 +4167,7 @@
         <v>18</v>
       </c>
       <c r="AJ26" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -5759,7 +5797,7 @@
         <v>13.634782608695652</v>
       </c>
       <c r="AJ42" s="5" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="AL42">
         <v>500</v>
@@ -5914,7 +5952,7 @@
         <v>13.634782608695652</v>
       </c>
       <c r="AJ43" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AL43">
         <v>500</v>
@@ -6069,7 +6107,7 @@
         <v>12.931958762886598</v>
       </c>
       <c r="AJ44" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="AL44">
         <v>500</v>
@@ -6224,7 +6262,7 @@
         <v>12.543999999999999</v>
       </c>
       <c r="AJ45" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="AL45">
         <v>500</v>
@@ -6379,7 +6417,7 @@
         <v>11.473170731707317</v>
       </c>
       <c r="AJ46" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="AL46">
         <v>500</v>
@@ -6534,7 +6572,7 @@
         <v>11.614814814814814</v>
       </c>
       <c r="AJ47" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AL47">
         <v>500</v>
@@ -8228,7 +8266,7 @@
         <v>64</v>
       </c>
       <c r="AJ59" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.25">
@@ -8465,7 +8503,7 @@
         <v>6</v>
       </c>
       <c r="AJ62" s="5" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.25">
@@ -8702,7 +8740,7 @@
         <v>50</v>
       </c>
       <c r="AJ65" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
@@ -8812,7 +8850,7 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
@@ -8922,7 +8960,7 @@
         <v>78</v>
       </c>
       <c r="AJ67" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
@@ -9032,7 +9070,7 @@
         <v>70</v>
       </c>
       <c r="AJ68" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
@@ -9142,7 +9180,7 @@
         <v>68</v>
       </c>
       <c r="AJ69" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
@@ -9252,10 +9290,10 @@
         <v>32</v>
       </c>
       <c r="AJ70" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AK70" s="8" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
@@ -9365,7 +9403,7 @@
         <v>112</v>
       </c>
       <c r="AJ71" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
@@ -9495,7 +9533,7 @@
         <v>3</v>
       </c>
       <c r="AJ73" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
@@ -9932,7 +9970,7 @@
         <v>379</v>
       </c>
       <c r="AK78" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.25">
@@ -9991,10 +10029,10 @@
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
       <c r="AJ79" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="AK79" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
@@ -10088,10 +10126,10 @@
       <c r="AH80" s="6"/>
       <c r="AI80" s="6"/>
       <c r="AJ80" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="AK80" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
@@ -10546,7 +10584,7 @@
         <v>288</v>
       </c>
       <c r="AJ87" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.25">
@@ -10568,39 +10606,42 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="T88" s="6">
-        <f t="shared" ref="T88:AA88" si="10">T87*12.5</f>
-        <v>1150</v>
+        <f>T87*0.3125</f>
+        <v>28.75</v>
       </c>
       <c r="U88" s="6">
-        <f t="shared" si="10"/>
-        <v>1350</v>
+        <f t="shared" ref="U88:AA88" si="9">U87*0.3125</f>
+        <v>33.75</v>
       </c>
       <c r="V88" s="6">
-        <f t="shared" si="10"/>
-        <v>1537.5</v>
+        <f t="shared" si="9"/>
+        <v>38.4375</v>
       </c>
       <c r="W88" s="6">
-        <f t="shared" si="10"/>
-        <v>1725</v>
+        <f t="shared" si="9"/>
+        <v>43.125</v>
       </c>
       <c r="X88" s="6">
-        <f t="shared" si="10"/>
-        <v>1925</v>
+        <f t="shared" si="9"/>
+        <v>48.125</v>
       </c>
       <c r="Y88" s="6">
-        <f t="shared" si="10"/>
-        <v>2400</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="Z88" s="6">
-        <f t="shared" si="10"/>
-        <v>2800</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
       <c r="AA88" s="6">
-        <f t="shared" si="10"/>
-        <v>3600</v>
+        <f t="shared" si="9"/>
+        <v>90</v>
       </c>
       <c r="AB88" t="s">
-        <v>375</v>
+        <v>438</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.25">
@@ -10710,10 +10751,10 @@
         <v>6</v>
       </c>
       <c r="AJ89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AK89" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.25">
@@ -10735,16 +10776,16 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="X90" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AA90" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AC90" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AF90" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.25">
@@ -10849,7 +10890,7 @@
         <v>36</v>
       </c>
       <c r="AJ91" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.25">
@@ -10877,7 +10918,7 @@
         <v>6500</v>
       </c>
       <c r="AJ92" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.25">
@@ -11116,7 +11157,7 @@
         <v>200</v>
       </c>
       <c r="AJ95" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.25">
@@ -11245,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:37" x14ac:dyDescent="0.25">
@@ -11273,7 +11314,7 @@
         <v>374</v>
       </c>
       <c r="AJ98" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.25">
@@ -11383,10 +11424,10 @@
         <v>26</v>
       </c>
       <c r="AJ99" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AK99" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.25">
@@ -11411,7 +11452,7 @@
         <v>513</v>
       </c>
       <c r="AK100" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.25">
@@ -11521,7 +11562,7 @@
         <v>63</v>
       </c>
       <c r="AJ101" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.25">
@@ -11676,63 +11717,63 @@
         <v>3.6300000000000003</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" ref="U104:AI104" si="11">U103*0.33</f>
+        <f t="shared" ref="U104:AI104" si="10">U103*0.33</f>
         <v>4.95</v>
       </c>
       <c r="V104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.870000000000001</v>
       </c>
       <c r="W104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>20.46</v>
       </c>
       <c r="X104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>30.03</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>37.620000000000005</v>
       </c>
       <c r="Z104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>45.21</v>
       </c>
       <c r="AA104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>52.800000000000004</v>
       </c>
       <c r="AB104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>60.06</v>
       </c>
       <c r="AC104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>67.650000000000006</v>
       </c>
       <c r="AD104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>69.3</v>
       </c>
       <c r="AE104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>72.930000000000007</v>
       </c>
       <c r="AF104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>76.56</v>
       </c>
       <c r="AG104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>76.56</v>
       </c>
       <c r="AH104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>76.56</v>
       </c>
       <c r="AI104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>76.56</v>
       </c>
       <c r="AJ104" t="s">
@@ -11806,7 +11847,7 @@
         <v>240</v>
       </c>
       <c r="AJ105" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.25">
@@ -11832,31 +11873,31 @@
         <v>1200</v>
       </c>
       <c r="U106" s="6">
-        <f t="shared" ref="U106:AA106" si="12">U105*12.5</f>
+        <f t="shared" ref="U106:AA106" si="11">U105*12.5</f>
         <v>1400</v>
       </c>
       <c r="V106" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1600</v>
       </c>
       <c r="W106" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1800</v>
       </c>
       <c r="X106" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2000</v>
       </c>
       <c r="Y106" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2400</v>
       </c>
       <c r="Z106" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2800</v>
       </c>
       <c r="AA106" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3000</v>
       </c>
       <c r="AB106" t="s">
@@ -11970,7 +12011,7 @@
         <v>25</v>
       </c>
       <c r="AJ107" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.25">
@@ -12080,10 +12121,10 @@
         <v>16</v>
       </c>
       <c r="AJ108" s="5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AK108" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.25">
@@ -12149,67 +12190,67 @@
         <v>63</v>
       </c>
       <c r="U109">
-        <f t="shared" ref="U109:AI109" si="13">HEX2DEC(D109)</f>
+        <f t="shared" ref="U109:AI109" si="12">HEX2DEC(D109)</f>
         <v>63</v>
       </c>
       <c r="V109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="W109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="X109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="Y109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>137</v>
       </c>
       <c r="Z109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="AA109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AB109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>166</v>
       </c>
       <c r="AC109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>172</v>
       </c>
       <c r="AD109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>168</v>
       </c>
       <c r="AE109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="AF109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>186</v>
       </c>
       <c r="AG109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>218</v>
       </c>
       <c r="AH109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>168</v>
       </c>
       <c r="AI109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="AJ109" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="19:19" x14ac:dyDescent="0.25">

--- a/Rom Data Translation/S130T_ROM_Address_Translation.xlsx
+++ b/Rom Data Translation/S130T_ROM_Address_Translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marshall\Documents\GitHub\280ZX-Turbo-ECCS\Rom Data Translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A7834E-F2E0-45CD-BF71-0A5A2C654162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333F9811-396D-460B-8F69-E548AFB3FF3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="27795" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6396" yWindow="4848" windowWidth="36516" windowHeight="20124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="439">
   <si>
     <t>00</t>
   </si>
@@ -1178,12 +1179,6 @@
     <t>Temp Sensor 32x1</t>
   </si>
   <si>
-    <t>* 12.5</t>
-  </si>
-  <si>
-    <t>8x8 table, unkown</t>
-  </si>
-  <si>
     <t>Ignition Duty Dwell (Battery Voltage)</t>
   </si>
   <si>
@@ -1202,54 +1197,45 @@
     <t>x*100/256, max 20.4v, min 0.08v (from Z31)</t>
   </si>
   <si>
+    <t>32x1 Cranking enrichment, scales vs temp 7B30</t>
+  </si>
+  <si>
+    <t>Ignition RPM SCALE DWORD 12.5 * X</t>
+  </si>
+  <si>
     <t>Fuel RPM SCALE DWORD 12.5 * X</t>
   </si>
   <si>
-    <t>*0.03215</t>
-  </si>
-  <si>
-    <t>fuel</t>
-  </si>
-  <si>
     <t>data, unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">DWORD? </t>
-  </si>
-  <si>
     <t>line, unknown</t>
   </si>
   <si>
-    <t>maybe light throttle fuel trim?</t>
-  </si>
-  <si>
     <t>o2 sensor feedback control temp should be 10* celsuis, hex 3c (Z31, 7F91)</t>
   </si>
   <si>
-    <t xml:space="preserve">Unknown fuel, Barometric? </t>
-  </si>
-  <si>
     <t>Hex 00 = closed loop flag</t>
   </si>
   <si>
     <t>after start enrichment</t>
   </si>
   <si>
-    <t xml:space="preserve">two values 7F44, 7F4C affect fuel enrichment on all ranges. </t>
-  </si>
-  <si>
-    <t>values don't seem to affect fueling</t>
-  </si>
-  <si>
     <t>fuel cut RPM 7F50 DWORD 12.5 * X</t>
   </si>
   <si>
     <t>idle timing 7F80 degrees BTDC</t>
   </si>
   <si>
+    <t>activates off idle switch</t>
+  </si>
+  <si>
     <t>maybe X*.03125 ?</t>
   </si>
   <si>
+    <t>maybe X*.03125 ? Same values as Z31</t>
+  </si>
+  <si>
     <t>TP scale fuel</t>
   </si>
   <si>
@@ -1259,7 +1245,7 @@
     <t>0x7B2A</t>
   </si>
   <si>
-    <t>DWORD?</t>
+    <t>unkown, unused?</t>
   </si>
   <si>
     <t>DWORD</t>
@@ -1268,9 +1254,6 @@
     <t>microcode</t>
   </si>
   <si>
-    <t xml:space="preserve">might be something to do with closed loop? </t>
-  </si>
-  <si>
     <t>memory address 0x0000 through 0x007F is internal RAM to the 6802</t>
   </si>
   <si>
@@ -1325,53 +1308,65 @@
     <t>Idle Switch Ignition Table</t>
   </si>
   <si>
+    <t>off throttle advancement added to idle timing, scales to RPM, added to base idle timing</t>
+  </si>
+  <si>
     <t>stays at value 129 near sea level, could be Barometric Altitude sensor enrichment scale.</t>
   </si>
   <si>
+    <t>7F44 DWORD K constant</t>
+  </si>
+  <si>
+    <t>Y axis 0x7FB0</t>
+  </si>
+  <si>
+    <t>X axis 0x7F30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmed axis scales in microcode. </t>
+  </si>
+  <si>
+    <t>EGR DUTY CYCLE  8x8 table</t>
+  </si>
+  <si>
+    <t>RPM Scale EGR map</t>
+  </si>
+  <si>
+    <t>TP scale EGR map</t>
+  </si>
+  <si>
+    <t>0x7F82 = cold timing temp switch, 0x7F88 = cold timing addition</t>
+  </si>
+  <si>
+    <t>Cold timing addition</t>
+  </si>
+  <si>
+    <t>Cold timing temp switch X-50</t>
+  </si>
+  <si>
+    <t>Unknown fuel multiplier, Altitude Enrichment?</t>
+  </si>
+  <si>
+    <t>DWORD ?</t>
+  </si>
+  <si>
+    <t>values in degrees BTDC</t>
+  </si>
+  <si>
+    <t>controls VCM duty cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (100 - (x / 2.55))</t>
+  </si>
+  <si>
     <t>AFM intake air temperature sensor</t>
-  </si>
-  <si>
-    <t>``````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````````</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x*0.3125, roughly folows KPA. Easier to read. </t>
-  </si>
-  <si>
-    <t>Activates with idle switch</t>
-  </si>
-  <si>
-    <t>idle switch ON advancement added to base idle timing, scales to RPM, added to base idle timing</t>
-  </si>
-  <si>
-    <t>TP scale for 8x8 table</t>
-  </si>
-  <si>
-    <t>Y axis scale is 7FC0</t>
-  </si>
-  <si>
-    <t>X axis scale is 7F30</t>
-  </si>
-  <si>
-    <t>RPM scale for 8x8 table</t>
-  </si>
-  <si>
-    <t>unkown.</t>
-  </si>
-  <si>
-    <t>*.3125</t>
-  </si>
-  <si>
-    <t>32x1 Cranking enrichment, scales to temp 7B30</t>
-  </si>
-  <si>
-    <t>accessed at part throttle conditions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1408,15 +1403,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1438,13 +1426,8 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1452,31 +1435,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -1487,16 +1454,14 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -1931,25 +1896,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AJ79" sqref="AJ79"/>
+      <selection pane="bottomLeft" activeCell="AK96" sqref="AK96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="18" width="4.7109375" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="3" customWidth="1"/>
-    <col min="20" max="35" width="7.7109375" customWidth="1"/>
-    <col min="36" max="36" width="42.5703125" customWidth="1"/>
-    <col min="37" max="37" width="110.7109375" customWidth="1"/>
-    <col min="38" max="38" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="18" width="4.6640625" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="3" customWidth="1"/>
+    <col min="20" max="35" width="7.6640625" customWidth="1"/>
+    <col min="36" max="36" width="42.5546875" customWidth="1"/>
+    <col min="37" max="37" width="110.6640625" customWidth="1"/>
+    <col min="38" max="38" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>191</v>
       </c>
@@ -2060,7 +2025,7 @@
       </c>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>211</v>
       </c>
@@ -2167,13 +2132,13 @@
         <v>63</v>
       </c>
       <c r="AJ2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AK2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>212</v>
       </c>
@@ -2237,10 +2202,10 @@
       <c r="U3">
         <v>169</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3">
         <v>2</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3">
         <v>208</v>
       </c>
       <c r="X3">
@@ -2280,13 +2245,13 @@
         <v>157</v>
       </c>
       <c r="AJ3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AK3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2304,17 +2269,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="V4" s="8">
-        <v>720</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>390</v>
-      </c>
       <c r="AK4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>213</v>
       </c>
@@ -2381,13 +2340,13 @@
         <v>63</v>
       </c>
       <c r="AJ5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AK5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>291</v>
       </c>
@@ -2419,7 +2378,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="T6">
         <v>144</v>
@@ -2434,13 +2393,13 @@
         <v>512</v>
       </c>
       <c r="AJ6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK6" t="s">
         <v>405</v>
       </c>
-      <c r="AK6" t="s">
-        <v>411</v>
-      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2458,49 +2417,19 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="T7" s="6">
-        <f>T6*12.5</f>
-        <v>1800</v>
-      </c>
-      <c r="U7" s="6">
-        <f t="shared" ref="U7:W7" si="0">U6*12.5</f>
-        <v>2200</v>
-      </c>
-      <c r="V7" s="6">
-        <f t="shared" si="0"/>
-        <v>3800</v>
-      </c>
-      <c r="W7" s="6">
-        <f t="shared" si="0"/>
-        <v>6400</v>
-      </c>
-      <c r="X7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y7" s="6">
-        <f>T6*0.03125</f>
-        <v>4.5</v>
-      </c>
-      <c r="Z7" s="6">
-        <f t="shared" ref="Z7:AB7" si="1">U6*0.03125</f>
-        <v>5.5</v>
-      </c>
-      <c r="AA7" s="6">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
-      </c>
-      <c r="AB7" s="6">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>387</v>
-      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
       <c r="AK7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>214</v>
       </c>
@@ -2610,10 +2539,10 @@
         <v>377</v>
       </c>
       <c r="AK8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
@@ -2720,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2742,7 +2671,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>216</v>
       </c>
@@ -2849,10 +2778,10 @@
         <v>33</v>
       </c>
       <c r="AJ11" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2876,70 +2805,70 @@
         <v>99.609375</v>
       </c>
       <c r="U12" s="6">
-        <f t="shared" ref="U12:AI12" si="2">U11*100/256</f>
+        <f t="shared" ref="U12:AI12" si="0">U11*100/256</f>
         <v>99.609375</v>
       </c>
       <c r="V12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>99.609375</v>
       </c>
       <c r="W12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>99.609375</v>
       </c>
       <c r="X12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>99.609375</v>
       </c>
       <c r="Y12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>99.609375</v>
       </c>
       <c r="Z12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>63.28125</v>
       </c>
       <c r="AA12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>43.359375</v>
       </c>
       <c r="AB12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>33.203125</v>
       </c>
       <c r="AC12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27.34375</v>
       </c>
       <c r="AD12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22.65625</v>
       </c>
       <c r="AE12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19.921875</v>
       </c>
       <c r="AF12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17.578125</v>
       </c>
       <c r="AG12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15.625</v>
       </c>
       <c r="AH12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14.453125</v>
       </c>
       <c r="AI12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12.890625</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>217</v>
       </c>
@@ -3046,13 +2975,13 @@
         <v>101</v>
       </c>
       <c r="AJ13" s="8" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AK13" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>218</v>
       </c>
@@ -3159,13 +3088,13 @@
         <v>141</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AK14" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3184,7 +3113,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>219</v>
       </c>
@@ -3275,10 +3204,10 @@
         <v>512</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>220</v>
       </c>
@@ -3319,74 +3248,74 @@
       <c r="R17" s="1"/>
       <c r="S17"/>
       <c r="T17" s="6">
-        <f>T16*0.3125</f>
-        <v>20</v>
+        <f>T16*0.03125</f>
+        <v>2</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" ref="U17:AI17" si="3">U16*0.3125</f>
-        <v>30</v>
+        <f t="shared" ref="U17:AI17" si="1">U16*0.03125</f>
+        <v>3</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="W17" s="6">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="X17" s="6">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Y17" s="6">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="Z17" s="6">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="AA17" s="6">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="AB17" s="6">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AC17" s="6">
-        <f t="shared" si="3"/>
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>10.5</v>
       </c>
       <c r="AD17" s="6">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="AE17" s="6">
-        <f t="shared" si="3"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>11.5</v>
       </c>
       <c r="AF17" s="6">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="AG17" s="6">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="AH17" s="6">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="AI17" s="6">
-        <f t="shared" si="3"/>
-        <v>160</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>221</v>
       </c>
@@ -3433,31 +3362,31 @@
         <v>400</v>
       </c>
       <c r="U18">
-        <f t="shared" ref="U18:AA18" si="4">HEX2DEC(D18)*12.5</f>
+        <f t="shared" ref="U18:AA18" si="2">HEX2DEC(D18)*12.5</f>
         <v>500</v>
       </c>
       <c r="V18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="W18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="X18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2800</v>
       </c>
       <c r="AB18">
@@ -3465,38 +3394,38 @@
         <v>3200</v>
       </c>
       <c r="AC18">
-        <f t="shared" ref="AC18:AI18" si="5">HEX2DEC(D19)*12.5</f>
+        <f t="shared" ref="AC18:AI18" si="3">HEX2DEC(D19)*12.5</f>
         <v>3600</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4400</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4800</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5200</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5600</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>222</v>
       </c>
@@ -3553,10 +3482,10 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>223</v>
       </c>
@@ -3599,58 +3528,74 @@
         <v>223</v>
       </c>
       <c r="T20">
-        <v>64</v>
+        <f>HEX2DEC(C20)*0.03125</f>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>80</v>
+        <f t="shared" ref="U20:AA20" si="4">HEX2DEC(D20)*0.03125</f>
+        <v>2.5</v>
       </c>
       <c r="V20">
-        <v>96</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="W20">
-        <v>112</v>
+        <f t="shared" si="4"/>
+        <v>3.5</v>
       </c>
       <c r="X20">
-        <v>128</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Y20">
-        <v>144</v>
+        <f t="shared" si="4"/>
+        <v>4.5</v>
       </c>
       <c r="Z20">
-        <v>160</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AA20">
-        <v>176</v>
+        <f t="shared" si="4"/>
+        <v>5.5</v>
       </c>
       <c r="AB20">
-        <v>192</v>
+        <f>HEX2DEC(C21)*0.03125</f>
+        <v>6</v>
       </c>
       <c r="AC20">
-        <v>224</v>
+        <f t="shared" ref="AC20:AI20" si="5">HEX2DEC(D21)*0.03125</f>
+        <v>7</v>
       </c>
       <c r="AD20">
-        <v>256</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="AE20">
-        <v>288</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="AF20">
-        <v>320</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="AG20">
-        <v>384</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="AH20">
-        <v>448</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="AI20">
-        <v>512</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>224</v>
       </c>
@@ -3690,75 +3635,27 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="6">
-        <f>T20*0.3125</f>
-        <v>20</v>
-      </c>
-      <c r="U21" s="6">
-        <f t="shared" ref="U21:AI21" si="6">U20*0.3125</f>
-        <v>25</v>
-      </c>
-      <c r="V21" s="6">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="W21" s="6">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="X21" s="6">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="Y21" s="6">
-        <f t="shared" si="6"/>
-        <v>45</v>
-      </c>
-      <c r="Z21" s="6">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="AB21" s="6">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="AC21" s="6">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="AD21" s="6">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="AE21" s="6">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="AF21" s="6">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="AG21" s="6">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="AH21" s="6">
-        <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="AI21" s="6">
-        <f t="shared" si="6"/>
-        <v>160</v>
-      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
       <c r="AJ21" s="8" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>225</v>
       </c>
@@ -3805,31 +3702,31 @@
         <v>800</v>
       </c>
       <c r="U22">
-        <f t="shared" ref="U22:AA22" si="7">HEX2DEC(D22)*12.5</f>
+        <f t="shared" ref="U22:AA22" si="6">HEX2DEC(D22)*12.5</f>
         <v>1000</v>
       </c>
       <c r="V22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="W22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1400</v>
       </c>
       <c r="X22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2400</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
       <c r="AB22">
@@ -3837,41 +3734,41 @@
         <v>3200</v>
       </c>
       <c r="AC22">
-        <f t="shared" ref="AC22:AI22" si="8">HEX2DEC(D23)*12.5</f>
+        <f t="shared" ref="AC22:AI22" si="7">HEX2DEC(D23)*12.5</f>
         <v>3600</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4400</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4800</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5200</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5600</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6000</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="AK22" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>226</v>
       </c>
@@ -3928,10 +3825,10 @@
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3950,7 +3847,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>227</v>
       </c>
@@ -4057,10 +3954,10 @@
         <v>16</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>228</v>
       </c>
@@ -4167,10 +4064,10 @@
         <v>18</v>
       </c>
       <c r="AJ26" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>229</v>
       </c>
@@ -4277,10 +4174,10 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>230</v>
       </c>
@@ -4387,7 +4284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>231</v>
       </c>
@@ -4494,7 +4391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>232</v>
       </c>
@@ -4601,7 +4498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>233</v>
       </c>
@@ -4708,7 +4605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>234</v>
       </c>
@@ -4815,7 +4712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>235</v>
       </c>
@@ -4922,7 +4819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>236</v>
       </c>
@@ -5029,7 +4926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>237</v>
       </c>
@@ -5136,7 +5033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>238</v>
       </c>
@@ -5243,7 +5140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>239</v>
       </c>
@@ -5350,7 +5247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>240</v>
       </c>
@@ -5457,7 +5354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>241</v>
       </c>
@@ -5564,7 +5461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>242</v>
       </c>
@@ -5671,7 +5568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5690,7 +5587,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>243</v>
       </c>
@@ -5748,56 +5645,56 @@
       <c r="S42" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="U42" s="11">
+      <c r="U42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="V42" s="11">
+      <c r="V42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="W42" s="11">
+      <c r="W42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="X42" s="11">
+      <c r="X42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Y42" s="11">
+      <c r="Y42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Z42" s="11">
+      <c r="Z42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AA42" s="11">
+      <c r="AA42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AB42" s="11">
+      <c r="AB42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AC42" s="11">
+      <c r="AC42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AD42" s="11">
+      <c r="AD42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AE42" s="11">
+      <c r="AE42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AF42" s="11">
+      <c r="AF42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AG42" s="11">
+      <c r="AG42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AH42" s="11">
+      <c r="AH42" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AI42" s="11">
+      <c r="AI42" s="10">
         <v>13.634782608695652</v>
       </c>
       <c r="AJ42" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AL42">
         <v>500</v>
@@ -5845,7 +5742,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>244</v>
       </c>
@@ -5903,56 +5800,56 @@
       <c r="S43" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="T43" s="11">
+      <c r="T43" s="10">
         <v>14.7</v>
       </c>
-      <c r="U43" s="11">
+      <c r="U43" s="10">
         <v>14.7</v>
       </c>
-      <c r="V43" s="11">
+      <c r="V43" s="10">
         <v>14.7</v>
       </c>
-      <c r="W43" s="11">
+      <c r="W43" s="10">
         <v>14.7</v>
       </c>
-      <c r="X43" s="11">
+      <c r="X43" s="10">
         <v>14.7</v>
       </c>
-      <c r="Y43" s="11">
+      <c r="Y43" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Z43" s="11">
+      <c r="Z43" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AA43" s="11">
+      <c r="AA43" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AB43" s="11">
+      <c r="AB43" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AC43" s="11">
+      <c r="AC43" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AD43" s="11">
+      <c r="AD43" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AE43" s="11">
+      <c r="AE43" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AF43" s="11">
+      <c r="AF43" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AG43" s="11">
+      <c r="AG43" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AH43" s="11">
+      <c r="AH43" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AI43" s="11">
+      <c r="AI43" s="10">
         <v>13.634782608695652</v>
       </c>
       <c r="AJ43" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AL43">
         <v>500</v>
@@ -6000,7 +5897,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>245</v>
       </c>
@@ -6058,56 +5955,56 @@
       <c r="S44" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="T44" s="11">
+      <c r="T44" s="10">
         <v>14.7</v>
       </c>
-      <c r="U44" s="11">
+      <c r="U44" s="10">
         <v>14.7</v>
       </c>
-      <c r="V44" s="11">
+      <c r="V44" s="10">
         <v>14.7</v>
       </c>
-      <c r="W44" s="11">
+      <c r="W44" s="10">
         <v>14.7</v>
       </c>
-      <c r="X44" s="11">
+      <c r="X44" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Y44" s="11">
+      <c r="Y44" s="10">
         <v>13.066666666666666</v>
       </c>
-      <c r="Z44" s="11">
+      <c r="Z44" s="10">
         <v>12.931958762886598</v>
       </c>
-      <c r="AA44" s="11">
+      <c r="AA44" s="10">
         <v>12.931958762886598</v>
       </c>
-      <c r="AB44" s="11">
+      <c r="AB44" s="10">
         <v>12.931958762886598</v>
       </c>
-      <c r="AC44" s="11">
+      <c r="AC44" s="10">
         <v>12.931958762886598</v>
       </c>
-      <c r="AD44" s="11">
+      <c r="AD44" s="10">
         <v>12.931958762886598</v>
       </c>
-      <c r="AE44" s="11">
+      <c r="AE44" s="10">
         <v>12.931958762886598</v>
       </c>
-      <c r="AF44" s="11">
+      <c r="AF44" s="10">
         <v>12.931958762886598</v>
       </c>
-      <c r="AG44" s="11">
+      <c r="AG44" s="10">
         <v>12.931958762886598</v>
       </c>
-      <c r="AH44" s="11">
+      <c r="AH44" s="10">
         <v>12.931958762886598</v>
       </c>
-      <c r="AI44" s="11">
+      <c r="AI44" s="10">
         <v>12.931958762886598</v>
       </c>
       <c r="AJ44" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AL44">
         <v>500</v>
@@ -6155,7 +6052,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>246</v>
       </c>
@@ -6213,56 +6110,56 @@
       <c r="S45" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="T45" s="11">
+      <c r="T45" s="10">
         <v>14.7</v>
       </c>
-      <c r="U45" s="11">
+      <c r="U45" s="10">
         <v>14.7</v>
       </c>
-      <c r="V45" s="11">
+      <c r="V45" s="10">
         <v>14.7</v>
       </c>
-      <c r="W45" s="11">
+      <c r="W45" s="10">
         <v>14.7</v>
       </c>
-      <c r="X45" s="11">
+      <c r="X45" s="10">
         <v>14.7</v>
       </c>
-      <c r="Y45" s="11">
+      <c r="Y45" s="10">
         <v>14.7</v>
       </c>
-      <c r="Z45" s="11">
+      <c r="Z45" s="10">
         <v>12.543999999999999</v>
       </c>
-      <c r="AA45" s="11">
+      <c r="AA45" s="10">
         <v>12.543999999999999</v>
       </c>
-      <c r="AB45" s="11">
+      <c r="AB45" s="10">
         <v>12.543999999999999</v>
       </c>
-      <c r="AC45" s="11">
+      <c r="AC45" s="10">
         <v>12.543999999999999</v>
       </c>
-      <c r="AD45" s="11">
+      <c r="AD45" s="10">
         <v>12.543999999999999</v>
       </c>
-      <c r="AE45" s="11">
+      <c r="AE45" s="10">
         <v>12.543999999999999</v>
       </c>
-      <c r="AF45" s="11">
+      <c r="AF45" s="10">
         <v>12.543999999999999</v>
       </c>
-      <c r="AG45" s="11">
+      <c r="AG45" s="10">
         <v>12.543999999999999</v>
       </c>
-      <c r="AH45" s="11">
+      <c r="AH45" s="10">
         <v>12.543999999999999</v>
       </c>
-      <c r="AI45" s="11">
+      <c r="AI45" s="10">
         <v>12.543999999999999</v>
       </c>
       <c r="AJ45" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AL45">
         <v>500</v>
@@ -6310,7 +6207,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>247</v>
       </c>
@@ -6368,56 +6265,56 @@
       <c r="S46" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="10">
         <v>14.7</v>
       </c>
-      <c r="U46" s="11">
+      <c r="U46" s="10">
         <v>14.7</v>
       </c>
-      <c r="V46" s="11">
+      <c r="V46" s="10">
         <v>14.7</v>
       </c>
-      <c r="W46" s="11">
+      <c r="W46" s="10">
         <v>14.7</v>
       </c>
-      <c r="X46" s="11">
+      <c r="X46" s="10">
         <v>14.7</v>
       </c>
-      <c r="Y46" s="11">
+      <c r="Y46" s="10">
         <v>14.7</v>
       </c>
-      <c r="Z46" s="11">
+      <c r="Z46" s="10">
         <v>14.7</v>
       </c>
-      <c r="AA46" s="11">
+      <c r="AA46" s="10">
         <v>14.7</v>
       </c>
-      <c r="AB46" s="11">
+      <c r="AB46" s="10">
         <v>14.7</v>
       </c>
-      <c r="AC46" s="11">
+      <c r="AC46" s="10">
         <v>14.7</v>
       </c>
-      <c r="AD46" s="11">
+      <c r="AD46" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AE46" s="11">
+      <c r="AE46" s="10">
         <v>11.473170731707317</v>
       </c>
-      <c r="AF46" s="11">
+      <c r="AF46" s="10">
         <v>11.473170731707317</v>
       </c>
-      <c r="AG46" s="11">
+      <c r="AG46" s="10">
         <v>11.473170731707317</v>
       </c>
-      <c r="AH46" s="11">
+      <c r="AH46" s="10">
         <v>11.473170731707317</v>
       </c>
-      <c r="AI46" s="11">
+      <c r="AI46" s="10">
         <v>11.473170731707317</v>
       </c>
       <c r="AJ46" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AL46">
         <v>500</v>
@@ -6465,7 +6362,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>248</v>
       </c>
@@ -6523,56 +6420,56 @@
       <c r="S47" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="10">
         <v>14.7</v>
       </c>
-      <c r="U47" s="11">
+      <c r="U47" s="10">
         <v>14.7</v>
       </c>
-      <c r="V47" s="11">
+      <c r="V47" s="10">
         <v>14.7</v>
       </c>
-      <c r="W47" s="11">
+      <c r="W47" s="10">
         <v>14.7</v>
       </c>
-      <c r="X47" s="11">
+      <c r="X47" s="10">
         <v>14.7</v>
       </c>
-      <c r="Y47" s="11">
+      <c r="Y47" s="10">
         <v>14.7</v>
       </c>
-      <c r="Z47" s="11">
+      <c r="Z47" s="10">
         <v>14.7</v>
       </c>
-      <c r="AA47" s="11">
+      <c r="AA47" s="10">
         <v>14.7</v>
       </c>
-      <c r="AB47" s="11">
+      <c r="AB47" s="10">
         <v>14.7</v>
       </c>
-      <c r="AC47" s="11">
+      <c r="AC47" s="10">
         <v>14.7</v>
       </c>
-      <c r="AD47" s="11">
+      <c r="AD47" s="10">
         <v>14.7</v>
       </c>
-      <c r="AE47" s="11">
+      <c r="AE47" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AF47" s="11">
+      <c r="AF47" s="10">
         <v>11.614814814814814</v>
       </c>
-      <c r="AG47" s="11">
+      <c r="AG47" s="10">
         <v>11.614814814814814</v>
       </c>
-      <c r="AH47" s="11">
+      <c r="AH47" s="10">
         <v>11.614814814814814</v>
       </c>
-      <c r="AI47" s="11">
+      <c r="AI47" s="10">
         <v>11.614814814814814</v>
       </c>
       <c r="AJ47" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="AL47">
         <v>500</v>
@@ -6620,7 +6517,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>249</v>
       </c>
@@ -6678,52 +6575,52 @@
       <c r="S48" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T48" s="11">
+      <c r="T48" s="10">
         <v>14.7</v>
       </c>
-      <c r="U48" s="11">
+      <c r="U48" s="10">
         <v>14.7</v>
       </c>
-      <c r="V48" s="11">
+      <c r="V48" s="10">
         <v>14.7</v>
       </c>
-      <c r="W48" s="11">
+      <c r="W48" s="10">
         <v>14.7</v>
       </c>
-      <c r="X48" s="11">
+      <c r="X48" s="10">
         <v>14.7</v>
       </c>
-      <c r="Y48" s="11">
+      <c r="Y48" s="10">
         <v>14.7</v>
       </c>
-      <c r="Z48" s="11">
+      <c r="Z48" s="10">
         <v>14.7</v>
       </c>
-      <c r="AA48" s="11">
+      <c r="AA48" s="10">
         <v>14.7</v>
       </c>
-      <c r="AB48" s="11">
+      <c r="AB48" s="10">
         <v>14.7</v>
       </c>
-      <c r="AC48" s="11">
+      <c r="AC48" s="10">
         <v>14.7</v>
       </c>
-      <c r="AD48" s="11">
+      <c r="AD48" s="10">
         <v>14.7</v>
       </c>
-      <c r="AE48" s="11">
+      <c r="AE48" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AF48" s="11">
+      <c r="AF48" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AG48" s="11">
+      <c r="AG48" s="10">
         <v>11.76</v>
       </c>
-      <c r="AH48" s="11">
+      <c r="AH48" s="10">
         <v>11.76</v>
       </c>
-      <c r="AI48" s="11">
+      <c r="AI48" s="10">
         <v>11.76</v>
       </c>
       <c r="AL48">
@@ -6772,7 +6669,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>250</v>
       </c>
@@ -6830,52 +6727,52 @@
       <c r="S49" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="T49" s="11">
+      <c r="T49" s="10">
         <v>14.7</v>
       </c>
-      <c r="U49" s="11">
+      <c r="U49" s="10">
         <v>14.7</v>
       </c>
-      <c r="V49" s="11">
+      <c r="V49" s="10">
         <v>14.7</v>
       </c>
-      <c r="W49" s="11">
+      <c r="W49" s="10">
         <v>14.7</v>
       </c>
-      <c r="X49" s="11">
+      <c r="X49" s="10">
         <v>14.7</v>
       </c>
-      <c r="Y49" s="11">
+      <c r="Y49" s="10">
         <v>14.7</v>
       </c>
-      <c r="Z49" s="11">
+      <c r="Z49" s="10">
         <v>14.7</v>
       </c>
-      <c r="AA49" s="11">
+      <c r="AA49" s="10">
         <v>14.7</v>
       </c>
-      <c r="AB49" s="11">
+      <c r="AB49" s="10">
         <v>14.7</v>
       </c>
-      <c r="AC49" s="11">
+      <c r="AC49" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AD49" s="11">
+      <c r="AD49" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AE49" s="11">
+      <c r="AE49" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AF49" s="11">
+      <c r="AF49" s="10">
         <v>12.061538461538461</v>
       </c>
-      <c r="AG49" s="11">
+      <c r="AG49" s="10">
         <v>11.334939759036144</v>
       </c>
-      <c r="AH49" s="11">
+      <c r="AH49" s="10">
         <v>11.334939759036144</v>
       </c>
-      <c r="AI49" s="11">
+      <c r="AI49" s="10">
         <v>11.334939759036144</v>
       </c>
       <c r="AL49">
@@ -6924,7 +6821,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>251</v>
       </c>
@@ -6982,52 +6879,52 @@
       <c r="S50" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="T50" s="11">
+      <c r="T50" s="10">
         <v>14.7</v>
       </c>
-      <c r="U50" s="11">
+      <c r="U50" s="10">
         <v>14.7</v>
       </c>
-      <c r="V50" s="11">
+      <c r="V50" s="10">
         <v>14.7</v>
       </c>
-      <c r="W50" s="11">
+      <c r="W50" s="10">
         <v>14.7</v>
       </c>
-      <c r="X50" s="11">
+      <c r="X50" s="10">
         <v>14.7</v>
       </c>
-      <c r="Y50" s="11">
+      <c r="Y50" s="10">
         <v>14.7</v>
       </c>
-      <c r="Z50" s="11">
+      <c r="Z50" s="10">
         <v>14.7</v>
       </c>
-      <c r="AA50" s="11">
+      <c r="AA50" s="10">
         <v>14.7</v>
       </c>
-      <c r="AB50" s="11">
+      <c r="AB50" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AC50" s="11">
+      <c r="AC50" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AD50" s="11">
+      <c r="AD50" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="AE50" s="11">
+      <c r="AE50" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AF50" s="11">
+      <c r="AF50" s="10">
         <v>11.90886075949367</v>
       </c>
-      <c r="AG50" s="11">
+      <c r="AG50" s="10">
         <v>10.939534883720929</v>
       </c>
-      <c r="AH50" s="11">
+      <c r="AH50" s="10">
         <v>10.939534883720929</v>
       </c>
-      <c r="AI50" s="11">
+      <c r="AI50" s="10">
         <v>10.939534883720929</v>
       </c>
       <c r="AL50">
@@ -7076,7 +6973,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>252</v>
       </c>
@@ -7134,52 +7031,52 @@
       <c r="S51" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="T51" s="11">
+      <c r="T51" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="U51" s="11">
+      <c r="U51" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="V51" s="11">
+      <c r="V51" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="W51" s="11">
+      <c r="W51" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="X51" s="11">
+      <c r="X51" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Y51" s="11">
+      <c r="Y51" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Z51" s="11">
+      <c r="Z51" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AA51" s="11">
+      <c r="AA51" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AB51" s="11">
+      <c r="AB51" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AC51" s="11">
+      <c r="AC51" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AD51" s="11">
+      <c r="AD51" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AE51" s="11">
+      <c r="AE51" s="10">
         <v>11.90886075949367</v>
       </c>
-      <c r="AF51" s="11">
+      <c r="AF51" s="10">
         <v>11.90886075949367</v>
       </c>
-      <c r="AG51" s="11">
+      <c r="AG51" s="10">
         <v>10.939534883720929</v>
       </c>
-      <c r="AH51" s="11">
+      <c r="AH51" s="10">
         <v>10.939534883720929</v>
       </c>
-      <c r="AI51" s="11">
+      <c r="AI51" s="10">
         <v>10.939534883720929</v>
       </c>
       <c r="AL51">
@@ -7228,7 +7125,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>253</v>
       </c>
@@ -7286,52 +7183,52 @@
       <c r="S52" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="T52" s="11">
+      <c r="T52" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="U52" s="11">
+      <c r="U52" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="V52" s="11">
+      <c r="V52" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="W52" s="11">
+      <c r="W52" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="X52" s="11">
+      <c r="X52" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Y52" s="11">
+      <c r="Y52" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Z52" s="11">
+      <c r="Z52" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AA52" s="11">
+      <c r="AA52" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AB52" s="11">
+      <c r="AB52" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AC52" s="11">
+      <c r="AC52" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AD52" s="11">
+      <c r="AD52" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AE52" s="11">
+      <c r="AE52" s="10">
         <v>11.90886075949367</v>
       </c>
-      <c r="AF52" s="11">
+      <c r="AF52" s="10">
         <v>11.90886075949367</v>
       </c>
-      <c r="AG52" s="11">
+      <c r="AG52" s="10">
         <v>10.939534883720929</v>
       </c>
-      <c r="AH52" s="11">
+      <c r="AH52" s="10">
         <v>10.939534883720929</v>
       </c>
-      <c r="AI52" s="11">
+      <c r="AI52" s="10">
         <v>10.939534883720929</v>
       </c>
       <c r="AL52">
@@ -7380,7 +7277,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>254</v>
       </c>
@@ -7438,52 +7335,52 @@
       <c r="S53" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="T53" s="11">
+      <c r="T53" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="U53" s="11">
+      <c r="U53" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="V53" s="11">
+      <c r="V53" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="W53" s="11">
+      <c r="W53" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="X53" s="11">
+      <c r="X53" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Y53" s="11">
+      <c r="Y53" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Z53" s="11">
+      <c r="Z53" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AA53" s="11">
+      <c r="AA53" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AB53" s="11">
+      <c r="AB53" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AC53" s="11">
+      <c r="AC53" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AD53" s="11">
+      <c r="AD53" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AE53" s="11">
+      <c r="AE53" s="10">
         <v>11.76</v>
       </c>
-      <c r="AF53" s="11">
+      <c r="AF53" s="10">
         <v>11.76</v>
       </c>
-      <c r="AG53" s="11">
+      <c r="AG53" s="10">
         <v>10.69090909090909</v>
       </c>
-      <c r="AH53" s="11">
+      <c r="AH53" s="10">
         <v>10.69090909090909</v>
       </c>
-      <c r="AI53" s="11">
+      <c r="AI53" s="10">
         <v>10.69090909090909</v>
       </c>
       <c r="AL53">
@@ -7532,7 +7429,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>255</v>
       </c>
@@ -7590,52 +7487,52 @@
       <c r="S54" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="T54" s="11">
+      <c r="T54" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="U54" s="11">
+      <c r="U54" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="V54" s="11">
+      <c r="V54" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="W54" s="11">
+      <c r="W54" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="X54" s="11">
+      <c r="X54" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Y54" s="11">
+      <c r="Y54" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Z54" s="11">
+      <c r="Z54" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AA54" s="11">
+      <c r="AA54" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AB54" s="11">
+      <c r="AB54" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AC54" s="11">
+      <c r="AC54" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AD54" s="11">
+      <c r="AD54" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AE54" s="11">
+      <c r="AE54" s="10">
         <v>11.76</v>
       </c>
-      <c r="AF54" s="11">
+      <c r="AF54" s="10">
         <v>11.2</v>
       </c>
-      <c r="AG54" s="11">
+      <c r="AG54" s="10">
         <v>10.226086956521739</v>
       </c>
-      <c r="AH54" s="11">
+      <c r="AH54" s="10">
         <v>10.226086956521739</v>
       </c>
-      <c r="AI54" s="11">
+      <c r="AI54" s="10">
         <v>10.226086956521739</v>
       </c>
       <c r="AL54">
@@ -7684,7 +7581,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>256</v>
       </c>
@@ -7742,52 +7639,52 @@
       <c r="S55" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="T55" s="11">
+      <c r="T55" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="U55" s="11">
+      <c r="U55" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="V55" s="11">
+      <c r="V55" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="W55" s="11">
+      <c r="W55" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="X55" s="11">
+      <c r="X55" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Y55" s="11">
+      <c r="Y55" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Z55" s="11">
+      <c r="Z55" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AA55" s="11">
+      <c r="AA55" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AB55" s="11">
+      <c r="AB55" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AC55" s="11">
+      <c r="AC55" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AD55" s="11">
+      <c r="AD55" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AE55" s="11">
+      <c r="AE55" s="10">
         <v>11.76</v>
       </c>
-      <c r="AF55" s="11">
+      <c r="AF55" s="10">
         <v>10.69090909090909</v>
       </c>
-      <c r="AG55" s="11">
+      <c r="AG55" s="10">
         <v>10.69090909090909</v>
       </c>
-      <c r="AH55" s="11">
+      <c r="AH55" s="10">
         <v>10.69090909090909</v>
       </c>
-      <c r="AI55" s="11">
+      <c r="AI55" s="10">
         <v>10.69090909090909</v>
       </c>
       <c r="AL55">
@@ -7836,7 +7733,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>257</v>
       </c>
@@ -7894,52 +7791,52 @@
       <c r="S56" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="T56" s="11">
+      <c r="T56" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="U56" s="11">
+      <c r="U56" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="V56" s="11">
+      <c r="V56" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="W56" s="11">
+      <c r="W56" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="X56" s="11">
+      <c r="X56" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Y56" s="11">
+      <c r="Y56" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Z56" s="11">
+      <c r="Z56" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AA56" s="11">
+      <c r="AA56" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AB56" s="11">
+      <c r="AB56" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AC56" s="11">
+      <c r="AC56" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AD56" s="11">
+      <c r="AD56" s="10">
         <v>12.378947368421052</v>
       </c>
-      <c r="AE56" s="11">
+      <c r="AE56" s="10">
         <v>11.76</v>
       </c>
-      <c r="AF56" s="11">
+      <c r="AF56" s="10">
         <v>10.570786516853932</v>
       </c>
-      <c r="AG56" s="11">
+      <c r="AG56" s="10">
         <v>10.570786516853932</v>
       </c>
-      <c r="AH56" s="11">
+      <c r="AH56" s="10">
         <v>10.570786516853932</v>
       </c>
-      <c r="AI56" s="11">
+      <c r="AI56" s="10">
         <v>10.570786516853932</v>
       </c>
       <c r="AL56">
@@ -7988,7 +7885,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>258</v>
       </c>
@@ -8046,52 +7943,52 @@
       <c r="S57" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="T57" s="11">
+      <c r="T57" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="U57" s="11">
+      <c r="U57" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="V57" s="11">
+      <c r="V57" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="W57" s="11">
+      <c r="W57" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="X57" s="11">
+      <c r="X57" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Y57" s="11">
+      <c r="Y57" s="10">
         <v>13.634782608695652</v>
       </c>
-      <c r="Z57" s="11">
+      <c r="Z57" s="10">
         <v>12.799999999999999</v>
       </c>
-      <c r="AA57" s="11">
+      <c r="AA57" s="10">
         <v>12.419801980198018</v>
       </c>
-      <c r="AB57" s="11">
+      <c r="AB57" s="10">
         <v>12.061538461538461</v>
       </c>
-      <c r="AC57" s="11">
+      <c r="AC57" s="10">
         <v>10.570786516853932</v>
       </c>
-      <c r="AD57" s="11">
+      <c r="AD57" s="10">
         <v>10.570786516853932</v>
       </c>
-      <c r="AE57" s="11">
+      <c r="AE57" s="10">
         <v>10.570786516853932</v>
       </c>
-      <c r="AF57" s="11">
+      <c r="AF57" s="10">
         <v>10.570786516853932</v>
       </c>
-      <c r="AG57" s="11">
+      <c r="AG57" s="10">
         <v>10.570786516853932</v>
       </c>
-      <c r="AH57" s="11">
+      <c r="AH57" s="10">
         <v>10.570786516853932</v>
       </c>
-      <c r="AI57" s="11">
+      <c r="AI57" s="10">
         <v>10.570786516853932</v>
       </c>
       <c r="AL57">
@@ -8140,7 +8037,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -8159,7 +8056,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>259</v>
       </c>
@@ -8266,10 +8163,10 @@
         <v>64</v>
       </c>
       <c r="AJ59" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>260</v>
       </c>
@@ -8376,7 +8273,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B61" s="3"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8396,7 +8293,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>261</v>
       </c>
@@ -8503,10 +8400,10 @@
         <v>6</v>
       </c>
       <c r="AJ62" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>262</v>
       </c>
@@ -8613,7 +8510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8633,7 +8530,7 @@
       <c r="R64" s="1"/>
       <c r="S64" s="5"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>263</v>
       </c>
@@ -8740,10 +8637,10 @@
         <v>50</v>
       </c>
       <c r="AJ65" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>264</v>
       </c>
@@ -8850,10 +8747,10 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>265</v>
       </c>
@@ -8960,10 +8857,10 @@
         <v>78</v>
       </c>
       <c r="AJ67" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>266</v>
       </c>
@@ -9070,10 +8967,10 @@
         <v>70</v>
       </c>
       <c r="AJ68" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>267</v>
       </c>
@@ -9180,10 +9077,10 @@
         <v>68</v>
       </c>
       <c r="AJ69" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>268</v>
       </c>
@@ -9290,13 +9187,10 @@
         <v>32</v>
       </c>
       <c r="AJ70" t="s">
-        <v>391</v>
-      </c>
-      <c r="AK70" s="8" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>269</v>
       </c>
@@ -9403,10 +9297,10 @@
         <v>112</v>
       </c>
       <c r="AJ71" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B72" s="3"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9426,7 +9320,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>270</v>
       </c>
@@ -9533,10 +9427,10 @@
         <v>3</v>
       </c>
       <c r="AJ73" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>271</v>
       </c>
@@ -9643,7 +9537,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>272</v>
       </c>
@@ -9750,7 +9644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>273</v>
       </c>
@@ -9857,7 +9751,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B77" s="3"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -9876,7 +9770,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>274</v>
       </c>
@@ -9966,14 +9860,11 @@
       <c r="AG78" s="6"/>
       <c r="AH78" s="6"/>
       <c r="AI78" s="6"/>
-      <c r="AJ78" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK78" t="s">
-        <v>392</v>
+      <c r="AJ78" s="5" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>157</v>
       </c>
@@ -10029,13 +9920,10 @@
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
       <c r="AJ79" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK79" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>275</v>
       </c>
@@ -10126,13 +10014,10 @@
       <c r="AH80" s="6"/>
       <c r="AI80" s="6"/>
       <c r="AJ80" t="s">
-        <v>435</v>
-      </c>
-      <c r="AK80" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>158</v>
       </c>
@@ -10187,8 +10072,11 @@
       <c r="AG81" s="6"/>
       <c r="AH81" s="6"/>
       <c r="AI81" s="6"/>
+      <c r="AJ81" t="s">
+        <v>426</v>
+      </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>276</v>
       </c>
@@ -10278,8 +10166,11 @@
       <c r="AG82" s="6"/>
       <c r="AH82" s="6"/>
       <c r="AI82" s="6"/>
+      <c r="AJ82" t="s">
+        <v>436</v>
+      </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>159</v>
       </c>
@@ -10334,8 +10225,11 @@
       <c r="AG83" s="6"/>
       <c r="AH83" s="6"/>
       <c r="AI83" s="6"/>
+      <c r="AJ83" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>277</v>
       </c>
@@ -10426,7 +10320,7 @@
       <c r="AH84" s="6"/>
       <c r="AI84" s="6"/>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>160</v>
       </c>
@@ -10482,7 +10376,7 @@
       <c r="AH85" s="6"/>
       <c r="AI85" s="6"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -10517,7 +10411,7 @@
       <c r="AH86" s="6"/>
       <c r="AI86" s="6"/>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>278</v>
       </c>
@@ -10583,11 +10477,11 @@
       <c r="AA87">
         <v>288</v>
       </c>
-      <c r="AJ87" t="s">
-        <v>433</v>
+      <c r="AJ87" s="5" t="s">
+        <v>429</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -10605,46 +10499,16 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
-      <c r="T88" s="6">
-        <f>T87*0.3125</f>
-        <v>28.75</v>
-      </c>
-      <c r="U88" s="6">
-        <f t="shared" ref="U88:AA88" si="9">U87*0.3125</f>
-        <v>33.75</v>
-      </c>
-      <c r="V88" s="6">
-        <f t="shared" si="9"/>
-        <v>38.4375</v>
-      </c>
-      <c r="W88" s="6">
-        <f t="shared" si="9"/>
-        <v>43.125</v>
-      </c>
-      <c r="X88" s="6">
-        <f t="shared" si="9"/>
-        <v>48.125</v>
-      </c>
-      <c r="Y88" s="6">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="Z88" s="6">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="AA88" s="6">
-        <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>438</v>
-      </c>
-      <c r="AJ88" t="s">
-        <v>430</v>
-      </c>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="6"/>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>279</v>
       </c>
@@ -10714,11 +10578,8 @@
       <c r="W89">
         <v>18</v>
       </c>
-      <c r="X89" s="10">
-        <v>12</v>
-      </c>
-      <c r="Y89">
-        <v>99</v>
+      <c r="Y89" s="5">
+        <v>3171</v>
       </c>
       <c r="Z89">
         <v>51</v>
@@ -10738,7 +10599,7 @@
       <c r="AE89">
         <v>184</v>
       </c>
-      <c r="AF89" s="10">
+      <c r="AF89">
         <v>56</v>
       </c>
       <c r="AG89">
@@ -10751,13 +10612,10 @@
         <v>6</v>
       </c>
       <c r="AJ89" t="s">
-        <v>389</v>
-      </c>
-      <c r="AK89" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -10775,20 +10633,14 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
-      <c r="X90" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>406</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>406</v>
-      </c>
-      <c r="AF90" s="10" t="s">
-        <v>388</v>
+      <c r="Y90" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ90" s="5" t="s">
+        <v>423</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>280</v>
       </c>
@@ -10890,10 +10742,10 @@
         <v>36</v>
       </c>
       <c r="AJ91" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>280</v>
       </c>
@@ -10918,10 +10770,10 @@
         <v>6500</v>
       </c>
       <c r="AJ92" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>281</v>
       </c>
@@ -11031,7 +10883,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -11050,7 +10902,7 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>282</v>
       </c>
@@ -11157,10 +11009,10 @@
         <v>200</v>
       </c>
       <c r="AJ95" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -11179,7 +11031,7 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>283</v>
       </c>
@@ -11243,7 +11095,7 @@
       <c r="U97">
         <v>10</v>
       </c>
-      <c r="V97">
+      <c r="V97" s="5">
         <v>97</v>
       </c>
       <c r="W97">
@@ -11261,7 +11113,7 @@
       <c r="AA97">
         <v>4</v>
       </c>
-      <c r="AB97">
+      <c r="AB97" s="5">
         <v>5</v>
       </c>
       <c r="AC97">
@@ -11286,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="AJ97" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -11308,16 +11160,25 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="T98" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U98" t="s">
         <v>374</v>
       </c>
+      <c r="V98" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB98" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="AJ98" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>430</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>284</v>
       </c>
@@ -11424,13 +11285,13 @@
         <v>26</v>
       </c>
       <c r="AJ99" t="s">
+        <v>387</v>
+      </c>
+      <c r="AK99" t="s">
         <v>389</v>
       </c>
-      <c r="AK99" t="s">
-        <v>393</v>
-      </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -11452,10 +11313,10 @@
         <v>513</v>
       </c>
       <c r="AK100" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>285</v>
       </c>
@@ -11562,10 +11423,10 @@
         <v>63</v>
       </c>
       <c r="AJ101" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -11584,7 +11445,7 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>286</v>
       </c>
@@ -11691,10 +11552,10 @@
         <v>232</v>
       </c>
       <c r="AJ103" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B104" s="3"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -11717,70 +11578,70 @@
         <v>3.6300000000000003</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" ref="U104:AI104" si="10">U103*0.33</f>
+        <f t="shared" ref="U104:AI104" si="8">U103*0.33</f>
         <v>4.95</v>
       </c>
       <c r="V104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>12.870000000000001</v>
       </c>
       <c r="W104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>20.46</v>
       </c>
       <c r="X104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>30.03</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>37.620000000000005</v>
       </c>
       <c r="Z104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>45.21</v>
       </c>
       <c r="AA104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>52.800000000000004</v>
       </c>
       <c r="AB104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>60.06</v>
       </c>
       <c r="AC104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>67.650000000000006</v>
       </c>
       <c r="AD104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>69.3</v>
       </c>
       <c r="AE104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>72.930000000000007</v>
       </c>
       <c r="AF104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>76.56</v>
       </c>
       <c r="AG104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>76.56</v>
       </c>
       <c r="AH104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>76.56</v>
       </c>
       <c r="AI104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>76.56</v>
       </c>
       <c r="AJ104" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>287</v>
       </c>
@@ -11846,11 +11707,11 @@
       <c r="AA105">
         <v>240</v>
       </c>
-      <c r="AJ105" t="s">
-        <v>436</v>
+      <c r="AJ105" s="5" t="s">
+        <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B106" s="3"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -11873,38 +11734,38 @@
         <v>1200</v>
       </c>
       <c r="U106" s="6">
-        <f t="shared" ref="U106:AA106" si="11">U105*12.5</f>
+        <f t="shared" ref="U106:AA106" si="9">U105*12.5</f>
         <v>1400</v>
       </c>
       <c r="V106" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1600</v>
       </c>
       <c r="W106" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1800</v>
       </c>
       <c r="X106" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="Y106" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2400</v>
       </c>
       <c r="Z106" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2800</v>
       </c>
       <c r="AA106" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3000</v>
       </c>
       <c r="AB106" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>288</v>
       </c>
@@ -12011,10 +11872,10 @@
         <v>25</v>
       </c>
       <c r="AJ107" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>289</v>
       </c>
@@ -12121,13 +11982,13 @@
         <v>16</v>
       </c>
       <c r="AJ108" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AK108" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>290</v>
       </c>
@@ -12190,97 +12051,97 @@
         <v>63</v>
       </c>
       <c r="U109">
-        <f t="shared" ref="U109:AI109" si="12">HEX2DEC(D109)</f>
+        <f t="shared" ref="U109:AI109" si="10">HEX2DEC(D109)</f>
         <v>63</v>
       </c>
       <c r="V109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="W109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="X109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="Y109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>137</v>
       </c>
       <c r="Z109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="AA109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>166</v>
       </c>
       <c r="AC109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>172</v>
       </c>
       <c r="AD109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="AE109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="AF109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
       <c r="AG109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>218</v>
       </c>
       <c r="AH109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="AI109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="AJ109" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="123" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S123"/>
     </row>
-    <row r="124" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S124"/>
     </row>
-    <row r="125" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S125"/>
     </row>
-    <row r="126" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S126"/>
     </row>
-    <row r="127" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S127"/>
     </row>
-    <row r="128" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S128"/>
     </row>
-    <row r="129" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S129"/>
     </row>
-    <row r="130" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S130"/>
     </row>
-    <row r="131" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S131"/>
     </row>
-    <row r="132" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S132"/>
     </row>
   </sheetData>
